--- a/admin/Exportfile/doc_xlsxflie/รายชื่อเวชภัณฑ์ ยา และอุปกรณ์ทางการแพทย์.xlsx
+++ b/admin/Exportfile/doc_xlsxflie/รายชื่อเวชภัณฑ์ ยา และอุปกรณ์ทางการแพทย์.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\main_project3\Exportfile\doc_xlsxflie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\main_project3\admin\Exportfile\doc_xlsxflie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FB2CC-A605-4214-8E79-EBD7DF97061B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB7C633-FFCC-4C0B-8972-68CA2B2A7A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,12 +71,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -106,18 +112,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -400,16 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="4" customWidth="1"/>
@@ -418,28 +433,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
